--- a/บทที่ 4/แบบสอบถามประเมินความพึงพอใจ/ผล excel/แบบสอบถามประเมินความพึงพอใจ.xlsx
+++ b/บทที่ 4/แบบสอบถามประเมินความพึงพอใจ/ผล excel/แบบสอบถามประเมินความพึงพอใจ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ปี4 เทอม2\เล่มโปรเจ็คฝึกงาน\tsesis_apprentice\บทที่ 4\แบบสอบถามประเมินความพึงพอใจ\ผล excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55454938-B4DD-41D6-9729-054A068BB195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590B572-8A7A-4E80-8AA6-0E8FEC5C5CF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F502F231-E661-49FD-BD8C-1BC4DC0F4760}"/>
+    <workbookView xWindow="28665" yWindow="-120" windowWidth="29070" windowHeight="15870" xr2:uid="{F502F231-E661-49FD-BD8C-1BC4DC0F4760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACA1ACC-59E0-487C-82E1-9AB2B25A0CB5}">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="AA69" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5897,6 +5897,124 @@
       </c>
       <c r="AH51" s="1"/>
     </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f>AVERAGE(E2:E51)</f>
+        <v>4.78</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:AG52" si="0">AVERAGE(F2:F51)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>4.42</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>4.42</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>4.38</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>4.42</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>4.62</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>4.34</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>4.38</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="0"/>
+        <v>4.58</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="0"/>
+        <v>4.46</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="0"/>
+        <v>4.66</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="0"/>
+        <v>4.46</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="0"/>
+        <v>4.38</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="0"/>
+        <v>4.72</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="0"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="0"/>
+        <v>4.46</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="0"/>
+        <v>4.32</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
